--- a/DaySale_2025-05-27_23-10.xlsx
+++ b/DaySale_2025-05-27_23-10.xlsx
@@ -191,13 +191,13 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>BLADOGRA XR 50MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>117.8100</t>
+    <t>BLADOGRA XR 25 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
   </si>
   <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="103" ht="24.75" customHeight="1">
       <c r="P103" s="13">
-        <v>5209.4700000000003</v>
+        <v>5155.0200000000004</v>
       </c>
       <c r="Q103" s="13"/>
     </row>
